--- a/study1/presentation_for_paper/study1_previous_models.xlsx
+++ b/study1/presentation_for_paper/study1_previous_models.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{4091CEA5-9BBF-4D88-8E34-958241BE5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0415CE47-3F8E-40F6-9665-398334839E10}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="8_{4091CEA5-9BBF-4D88-8E34-958241BE5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA41D2C-CA9B-4FAA-B5B6-DD121FD1584E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{46F2C4E6-413D-41BD-817F-B1A4F1944531}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{46F2C4E6-413D-41BD-817F-B1A4F1944531}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Examiner</t>
     <phoneticPr fontId="2"/>
@@ -60,10 +62,6 @@
   </si>
   <si>
     <t>Guinn, C. (2023)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Our Study</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -157,10 +155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Random sampling of 39 entries for each of the 16 MBTI types, prioritizing samples closer to the median word count</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Training Method</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -174,6 +168,43 @@
   </si>
   <si>
     <t>Pre-trained data only, no fine-tuning</t>
+  </si>
+  <si>
+    <t>Randomly sampled 39 entries per MBTI type, prioritizing median word count.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Random sampling based on original distribution, prioritizing median word count.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Our Study (Resampling Strategy 1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Our Study - Baseline
+ (Resampling Strategy 2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8,675 
+(433,750)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2,000 
+(100,000)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>624 
+(31,200)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Our Study 
+(Resampling Strategy 1)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -232,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -284,6 +315,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -293,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,11 +421,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -346,23 +476,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>329293</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127908</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4EE849-BA70-5E0E-F0A0-87D886E95299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8248464C-730F-D721-46D7-0E32DDAC0FB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,8 +515,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="489858" y="108857"/>
-          <a:ext cx="11097078" cy="5235122"/>
+          <a:off x="843643" y="435429"/>
+          <a:ext cx="12491357" cy="3963307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -406,6 +536,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9CEB81-8CCA-6FF0-DF9F-29DC3AFAFB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="222250" y="93663"/>
+          <a:ext cx="12163425" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,22 +925,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D177D0F-3FCB-42E6-8FBD-E31EC19AF7DE}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="1.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.08203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.9140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
@@ -755,129 +955,155 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="82.5" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="70">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="89" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="56">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="90.5" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="42">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="42">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="42">
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="91" customHeight="1">
-      <c r="B6" s="7" t="s">
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="5.5" customHeight="1"/>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="5.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,11 +1111,254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E9195-2419-4AF7-ADFF-710457EF5B65}">
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="1.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.9140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="7" customHeight="1"/>
+    <row r="2" spans="2:9" ht="49.5" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="70">
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" ht="56">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="42">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="15" customFormat="1" ht="3.5" customHeight="1">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" ht="42">
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" ht="42">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="5.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53914635-E522-4B22-BA20-EF058B9EC3EF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4305D4-18EE-4692-A09C-B7B6971AA72E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
